--- a/Modelo2/ronda_1.xlsx
+++ b/Modelo2/ronda_1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\Proyecto_Integrador\Modelo2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2307EAD-0251-447E-87DA-CA88C8812976}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{423C560B-E157-4CEF-8E08-7FF15B0AEE4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14400" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -862,18 +862,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -921,7 +915,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -934,16 +928,12 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="10" fontId="1" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="10" fontId="0" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="10" fontId="0" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1248,10 +1238,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:U101"/>
+  <dimension ref="A1:U1048571"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="R14" sqref="R14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N15" sqref="N15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1264,7 +1254,7 @@
     <col min="7" max="7" width="12.85546875" style="3" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="9.7109375" style="3" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.42578125" style="7" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.42578125" style="3" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="15.85546875" style="3" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="16.5703125" style="3" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="13.28515625" style="3" bestFit="1" customWidth="1"/>
@@ -1298,7 +1288,7 @@
       <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="J1" s="2" t="s">
         <v>8</v>
       </c>
       <c r="K1" s="2" t="s">
@@ -1348,7 +1338,7 @@
       <c r="I2" t="s">
         <v>16</v>
       </c>
-      <c r="J2" s="3">
+      <c r="J2" s="8">
         <v>0.87107142857142861</v>
       </c>
       <c r="K2" s="3">
@@ -1367,61 +1357,61 @@
         <v>17</v>
       </c>
       <c r="P2" s="3">
-        <f>ABS(D2-J2)</f>
+        <f t="shared" ref="P2:P33" si="0">ABS(D2-J2)</f>
         <v>5.2896825396825276E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:21" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="8">
+    <row r="3" spans="1:21" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="6">
         <v>33</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="C3" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="D3" s="10">
+      <c r="C3" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="8">
         <v>0.91666099773242637</v>
       </c>
-      <c r="E3" s="10">
+      <c r="E3" s="8">
         <v>0.8392857142857143</v>
       </c>
-      <c r="F3" s="10">
+      <c r="F3" s="8">
         <v>0.84503631961259085</v>
       </c>
-      <c r="G3" s="10">
+      <c r="G3" s="8">
         <v>0.830952380952381</v>
       </c>
-      <c r="H3" s="10">
+      <c r="H3" s="8">
         <v>0.83793517406962792</v>
       </c>
-      <c r="I3" s="9" t="s">
+      <c r="I3" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="J3" s="10">
+      <c r="J3" s="8">
         <v>0.87744897959183665</v>
       </c>
-      <c r="K3" s="10">
+      <c r="K3" s="8">
         <v>0.81428571428571428</v>
       </c>
-      <c r="L3" s="10">
+      <c r="L3" s="8">
         <v>0.8098591549295775</v>
       </c>
-      <c r="M3" s="10">
+      <c r="M3" s="8">
         <v>0.8214285714285714</v>
       </c>
-      <c r="N3" s="10">
+      <c r="N3" s="8">
         <v>0.81560283687943269</v>
       </c>
-      <c r="O3" s="9" t="s">
+      <c r="O3" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="P3" s="10">
-        <f>ABS(D3-J3)</f>
+      <c r="P3" s="8">
+        <f t="shared" si="0"/>
         <v>3.9212018140589722E-2</v>
       </c>
-      <c r="U3" s="11"/>
+      <c r="U3" s="9"/>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
@@ -1451,7 +1441,7 @@
       <c r="I4" t="s">
         <v>81</v>
       </c>
-      <c r="J4" s="7">
+      <c r="J4" s="3">
         <v>0.87510204081632648</v>
       </c>
       <c r="K4" s="3">
@@ -1470,7 +1460,7 @@
         <v>82</v>
       </c>
       <c r="P4" s="3">
-        <f>ABS(D4-J4)</f>
+        <f t="shared" si="0"/>
         <v>4.606009070294792E-2</v>
       </c>
     </row>
@@ -1502,7 +1492,7 @@
       <c r="I5" t="s">
         <v>48</v>
       </c>
-      <c r="J5" s="7">
+      <c r="J5" s="3">
         <v>0.87255102040816324</v>
       </c>
       <c r="K5" s="3">
@@ -1521,7 +1511,7 @@
         <v>49</v>
       </c>
       <c r="P5" s="3">
-        <f>ABS(D5-J5)</f>
+        <f t="shared" si="0"/>
         <v>3.9693877551020496E-2</v>
       </c>
     </row>
@@ -1553,7 +1543,7 @@
       <c r="I6" t="s">
         <v>40</v>
       </c>
-      <c r="J6" s="7">
+      <c r="J6" s="3">
         <v>0.87132653061224496</v>
       </c>
       <c r="K6" s="3">
@@ -1572,7 +1562,7 @@
         <v>82</v>
       </c>
       <c r="P6" s="3">
-        <f>ABS(D6-J6)</f>
+        <f t="shared" si="0"/>
         <v>4.2199546485260697E-2</v>
       </c>
     </row>
@@ -1604,7 +1594,7 @@
       <c r="I7" t="s">
         <v>92</v>
       </c>
-      <c r="J7" s="7">
+      <c r="J7" s="3">
         <v>0.87102040816326531</v>
       </c>
       <c r="K7" s="3">
@@ -1623,7 +1613,7 @@
         <v>49</v>
       </c>
       <c r="P7" s="3">
-        <f>ABS(D7-J7)</f>
+        <f t="shared" si="0"/>
         <v>4.5385487528344814E-2</v>
       </c>
     </row>
@@ -1655,7 +1645,7 @@
       <c r="I8" t="s">
         <v>51</v>
       </c>
-      <c r="J8" s="7">
+      <c r="J8" s="3">
         <v>0.87096938775510213</v>
       </c>
       <c r="K8" s="3">
@@ -1674,7 +1664,7 @@
         <v>49</v>
       </c>
       <c r="P8" s="3">
-        <f>ABS(D8-J8)</f>
+        <f t="shared" si="0"/>
         <v>3.6020408163265127E-2</v>
       </c>
     </row>
@@ -1706,7 +1696,7 @@
       <c r="I9" t="s">
         <v>92</v>
       </c>
-      <c r="J9" s="7">
+      <c r="J9" s="3">
         <v>0.8705102040816326</v>
       </c>
       <c r="K9" s="3">
@@ -1725,7 +1715,7 @@
         <v>173</v>
       </c>
       <c r="P9" s="3">
-        <f>ABS(D9-J9)</f>
+        <f t="shared" si="0"/>
         <v>4.7647392290249502E-2</v>
       </c>
       <c r="U9" s="5"/>
@@ -1758,7 +1748,7 @@
       <c r="I10" t="s">
         <v>48</v>
       </c>
-      <c r="J10" s="7">
+      <c r="J10" s="3">
         <v>0.87015306122448977</v>
       </c>
       <c r="K10" s="3">
@@ -1777,7 +1767,7 @@
         <v>82</v>
       </c>
       <c r="P10" s="3">
-        <f>ABS(D10-J10)</f>
+        <f t="shared" si="0"/>
         <v>4.0504535147392162E-2</v>
       </c>
     </row>
@@ -1809,7 +1799,7 @@
       <c r="I11" t="s">
         <v>58</v>
       </c>
-      <c r="J11" s="7">
+      <c r="J11" s="3">
         <v>0.87397959183673468</v>
       </c>
       <c r="K11" s="3">
@@ -1828,7 +1818,7 @@
         <v>165</v>
       </c>
       <c r="P11" s="3">
-        <f>ABS(D11-J11)</f>
+        <f t="shared" si="0"/>
         <v>4.1791383219954681E-2</v>
       </c>
     </row>
@@ -1860,7 +1850,7 @@
       <c r="I12" t="s">
         <v>187</v>
       </c>
-      <c r="J12" s="7">
+      <c r="J12" s="3">
         <v>0.87301020408163266</v>
       </c>
       <c r="K12" s="3">
@@ -1879,7 +1869,7 @@
         <v>165</v>
       </c>
       <c r="P12" s="3">
-        <f>ABS(D12-J12)</f>
+        <f t="shared" si="0"/>
         <v>4.7721088435374148E-2</v>
       </c>
     </row>
@@ -1911,7 +1901,7 @@
       <c r="I13" t="s">
         <v>113</v>
       </c>
-      <c r="J13" s="7">
+      <c r="J13" s="3">
         <v>0.87270408163265301</v>
       </c>
       <c r="K13" s="3">
@@ -1930,7 +1920,7 @@
         <v>114</v>
       </c>
       <c r="P13" s="3">
-        <f>ABS(D13-J13)</f>
+        <f t="shared" si="0"/>
         <v>4.4699546485260755E-2</v>
       </c>
     </row>
@@ -1962,7 +1952,7 @@
       <c r="I14" t="s">
         <v>66</v>
       </c>
-      <c r="J14" s="7">
+      <c r="J14" s="3">
         <v>0.87188775510204086</v>
       </c>
       <c r="K14" s="3">
@@ -1981,7 +1971,7 @@
         <v>67</v>
       </c>
       <c r="P14" s="3">
-        <f>ABS(D14-J14)</f>
+        <f t="shared" si="0"/>
         <v>4.4948979591836635E-2</v>
       </c>
     </row>
@@ -2013,7 +2003,7 @@
       <c r="I15" t="s">
         <v>31</v>
       </c>
-      <c r="J15" s="7">
+      <c r="J15" s="3">
         <v>0.86989795918367352</v>
       </c>
       <c r="K15" s="3">
@@ -2032,7 +2022,7 @@
         <v>32</v>
       </c>
       <c r="P15" s="3">
-        <f>ABS(D15-J15)</f>
+        <f t="shared" si="0"/>
         <v>3.3395691609977352E-2</v>
       </c>
     </row>
@@ -2064,7 +2054,7 @@
       <c r="I16" t="s">
         <v>161</v>
       </c>
-      <c r="J16" s="7">
+      <c r="J16" s="3">
         <v>0.86627551020408167</v>
       </c>
       <c r="K16" s="3">
@@ -2083,7 +2073,7 @@
         <v>67</v>
       </c>
       <c r="P16" s="3">
-        <f>ABS(D16-J16)</f>
+        <f t="shared" si="0"/>
         <v>3.8826530612244947E-2</v>
       </c>
     </row>
@@ -2134,7 +2124,7 @@
         <v>44</v>
       </c>
       <c r="P17" s="3">
-        <f>ABS(D17-J17)</f>
+        <f t="shared" si="0"/>
         <v>5.0345804988662146E-2</v>
       </c>
     </row>
@@ -2185,7 +2175,7 @@
         <v>44</v>
       </c>
       <c r="P18" s="3">
-        <f>ABS(D18-J18)</f>
+        <f t="shared" si="0"/>
         <v>5.0895691609977423E-2</v>
       </c>
     </row>
@@ -2217,7 +2207,7 @@
       <c r="I19" t="s">
         <v>134</v>
       </c>
-      <c r="J19" s="7">
+      <c r="J19" s="3">
         <v>0.86627551020408156</v>
       </c>
       <c r="K19" s="3">
@@ -2236,7 +2226,7 @@
         <v>32</v>
       </c>
       <c r="P19" s="3">
-        <f>ABS(D19-J19)</f>
+        <f t="shared" si="0"/>
         <v>4.0277777777777857E-2</v>
       </c>
     </row>
@@ -2268,7 +2258,7 @@
       <c r="I20" t="s">
         <v>25</v>
       </c>
-      <c r="J20" s="7">
+      <c r="J20" s="3">
         <v>0.87397959183673468</v>
       </c>
       <c r="K20" s="3">
@@ -2287,7 +2277,7 @@
         <v>26</v>
       </c>
       <c r="P20" s="3">
-        <f>ABS(D20-J20)</f>
+        <f t="shared" si="0"/>
         <v>4.7568027210884489E-2</v>
       </c>
     </row>
@@ -2319,7 +2309,7 @@
       <c r="I21" t="s">
         <v>25</v>
       </c>
-      <c r="J21" s="7">
+      <c r="J21" s="3">
         <v>0.87397959183673468</v>
       </c>
       <c r="K21" s="3">
@@ -2338,7 +2328,7 @@
         <v>26</v>
       </c>
       <c r="P21" s="3">
-        <f>ABS(D21-J21)</f>
+        <f t="shared" si="0"/>
         <v>4.7568027210884489E-2</v>
       </c>
     </row>
@@ -2370,7 +2360,7 @@
       <c r="I22" t="s">
         <v>132</v>
       </c>
-      <c r="J22" s="7">
+      <c r="J22" s="3">
         <v>0.87280612244897959</v>
       </c>
       <c r="K22" s="3">
@@ -2389,7 +2379,7 @@
         <v>56</v>
       </c>
       <c r="P22" s="3">
-        <f>ABS(D22-J22)</f>
+        <f t="shared" si="0"/>
         <v>3.7086167800453484E-2</v>
       </c>
     </row>
@@ -2421,7 +2411,7 @@
       <c r="I23" t="s">
         <v>84</v>
       </c>
-      <c r="J23" s="7">
+      <c r="J23" s="3">
         <v>0.87204081632653063</v>
       </c>
       <c r="K23" s="3">
@@ -2440,7 +2430,7 @@
         <v>85</v>
       </c>
       <c r="P23" s="3">
-        <f>ABS(D23-J23)</f>
+        <f t="shared" si="0"/>
         <v>4.819160997732419E-2</v>
       </c>
     </row>
@@ -2472,7 +2462,7 @@
       <c r="I24" t="s">
         <v>72</v>
       </c>
-      <c r="J24" s="7">
+      <c r="J24" s="3">
         <v>0.87198979591836734</v>
       </c>
       <c r="K24" s="3">
@@ -2491,7 +2481,7 @@
         <v>26</v>
       </c>
       <c r="P24" s="3">
-        <f>ABS(D24-J24)</f>
+        <f t="shared" si="0"/>
         <v>4.4892290249433087E-2</v>
       </c>
     </row>
@@ -2523,7 +2513,7 @@
       <c r="I25" t="s">
         <v>55</v>
       </c>
-      <c r="J25" s="7">
+      <c r="J25" s="3">
         <v>0.87183673469387757</v>
       </c>
       <c r="K25" s="3">
@@ -2542,7 +2532,7 @@
         <v>56</v>
       </c>
       <c r="P25" s="3">
-        <f>ABS(D25-J25)</f>
+        <f t="shared" si="0"/>
         <v>3.954648526077098E-2</v>
       </c>
     </row>
@@ -2574,7 +2564,7 @@
       <c r="I26" t="s">
         <v>55</v>
       </c>
-      <c r="J26" s="7">
+      <c r="J26" s="3">
         <v>0.87183673469387757</v>
       </c>
       <c r="K26" s="3">
@@ -2593,7 +2583,7 @@
         <v>56</v>
       </c>
       <c r="P26" s="3">
-        <f>ABS(D26-J26)</f>
+        <f t="shared" si="0"/>
         <v>3.954648526077098E-2</v>
       </c>
     </row>
@@ -2625,7 +2615,7 @@
       <c r="I27" t="s">
         <v>215</v>
       </c>
-      <c r="J27" s="7">
+      <c r="J27" s="3">
         <v>0.86933673469387751</v>
       </c>
       <c r="K27" s="3">
@@ -2644,7 +2634,7 @@
         <v>26</v>
       </c>
       <c r="P27" s="3">
-        <f>ABS(D27-J27)</f>
+        <f t="shared" si="0"/>
         <v>4.5272108843537384E-2</v>
       </c>
     </row>
@@ -2676,7 +2666,7 @@
       <c r="I28" t="s">
         <v>87</v>
       </c>
-      <c r="J28" s="7">
+      <c r="J28" s="3">
         <v>0.86923469387755103</v>
       </c>
       <c r="K28" s="3">
@@ -2695,7 +2685,7 @@
         <v>88</v>
       </c>
       <c r="P28" s="3">
-        <f>ABS(D28-J28)</f>
+        <f t="shared" si="0"/>
         <v>3.4081632653061189E-2</v>
       </c>
     </row>
@@ -2727,7 +2717,7 @@
       <c r="I29" t="s">
         <v>55</v>
       </c>
-      <c r="J29" s="7">
+      <c r="J29" s="3">
         <v>0.86923469387755103</v>
       </c>
       <c r="K29" s="3">
@@ -2746,7 +2736,7 @@
         <v>138</v>
       </c>
       <c r="P29" s="3">
-        <f>ABS(D29-J29)</f>
+        <f t="shared" si="0"/>
         <v>3.8707482993197262E-2</v>
       </c>
     </row>
@@ -2778,7 +2768,7 @@
       <c r="I30" t="s">
         <v>192</v>
       </c>
-      <c r="J30" s="7">
+      <c r="J30" s="3">
         <v>0.86872448979591843</v>
       </c>
       <c r="K30" s="3">
@@ -2797,7 +2787,7 @@
         <v>138</v>
       </c>
       <c r="P30" s="3">
-        <f>ABS(D30-J30)</f>
+        <f t="shared" si="0"/>
         <v>3.7942176870748301E-2</v>
       </c>
     </row>
@@ -2848,7 +2838,7 @@
         <v>93</v>
       </c>
       <c r="P31" s="3">
-        <f>ABS(D31-J31)</f>
+        <f t="shared" si="0"/>
         <v>5.0017006802721031E-2</v>
       </c>
     </row>
@@ -2880,7 +2870,7 @@
       <c r="I32" t="s">
         <v>137</v>
       </c>
-      <c r="J32" s="7">
+      <c r="J32" s="3">
         <v>0.8650000000000001</v>
       </c>
       <c r="K32" s="3">
@@ -2899,7 +2889,7 @@
         <v>138</v>
       </c>
       <c r="P32" s="3">
-        <f>ABS(D32-J32)</f>
+        <f t="shared" si="0"/>
         <v>4.0663265306122298E-2</v>
       </c>
     </row>
@@ -2931,7 +2921,7 @@
       <c r="I33" t="s">
         <v>77</v>
       </c>
-      <c r="J33" s="7">
+      <c r="J33" s="3">
         <v>0.8633163265306123</v>
       </c>
       <c r="K33" s="3">
@@ -2950,7 +2940,7 @@
         <v>88</v>
       </c>
       <c r="P33" s="3">
-        <f>ABS(D33-J33)</f>
+        <f t="shared" si="0"/>
         <v>3.8469387755102002E-2</v>
       </c>
     </row>
@@ -2982,7 +2972,7 @@
       <c r="I34" t="s">
         <v>200</v>
       </c>
-      <c r="J34" s="7">
+      <c r="J34" s="3">
         <v>0.86326530612244901</v>
       </c>
       <c r="K34" s="3">
@@ -3001,7 +2991,7 @@
         <v>56</v>
       </c>
       <c r="P34" s="3">
-        <f>ABS(D34-J34)</f>
+        <f t="shared" ref="P34:P65" si="1">ABS(D34-J34)</f>
         <v>4.2630385487528288E-2</v>
       </c>
     </row>
@@ -3033,7 +3023,7 @@
       <c r="I35" t="s">
         <v>123</v>
       </c>
-      <c r="J35" s="7">
+      <c r="J35" s="3">
         <v>0.86198979591836733</v>
       </c>
       <c r="K35" s="3">
@@ -3052,7 +3042,7 @@
         <v>88</v>
       </c>
       <c r="P35" s="3">
-        <f>ABS(D35-J35)</f>
+        <f t="shared" si="1"/>
         <v>3.8083900226757339E-2</v>
       </c>
     </row>
@@ -3084,7 +3074,7 @@
       <c r="I36" t="s">
         <v>177</v>
       </c>
-      <c r="J36" s="7">
+      <c r="J36" s="3">
         <v>0.86188775510204085</v>
       </c>
       <c r="K36" s="3">
@@ -3103,7 +3093,7 @@
         <v>178</v>
       </c>
       <c r="P36" s="3">
-        <f>ABS(D36-J36)</f>
+        <f t="shared" si="1"/>
         <v>4.0447845804988614E-2</v>
       </c>
     </row>
@@ -3135,7 +3125,7 @@
       <c r="I37" t="s">
         <v>194</v>
       </c>
-      <c r="J37" s="7">
+      <c r="J37" s="3">
         <v>0.87377551020408162</v>
       </c>
       <c r="K37" s="3">
@@ -3154,7 +3144,7 @@
         <v>106</v>
       </c>
       <c r="P37" s="3">
-        <f>ABS(D37-J37)</f>
+        <f t="shared" si="1"/>
         <v>3.490362811791381E-2</v>
       </c>
     </row>
@@ -3186,7 +3176,7 @@
       <c r="I38" t="s">
         <v>213</v>
       </c>
-      <c r="J38" s="7">
+      <c r="J38" s="3">
         <v>0.87301020408163266</v>
       </c>
       <c r="K38" s="3">
@@ -3205,7 +3195,7 @@
         <v>29</v>
       </c>
       <c r="P38" s="3">
-        <f>ABS(D38-J38)</f>
+        <f t="shared" si="1"/>
         <v>3.472222222222221E-2</v>
       </c>
     </row>
@@ -3237,7 +3227,7 @@
       <c r="I39" t="s">
         <v>81</v>
       </c>
-      <c r="J39" s="7">
+      <c r="J39" s="3">
         <v>0.87193877551020404</v>
       </c>
       <c r="K39" s="3">
@@ -3256,7 +3246,7 @@
         <v>29</v>
       </c>
       <c r="P39" s="3">
-        <f>ABS(D39-J39)</f>
+        <f t="shared" si="1"/>
         <v>4.9971655328798215E-2</v>
       </c>
     </row>
@@ -3288,7 +3278,7 @@
       <c r="I40" t="s">
         <v>119</v>
       </c>
-      <c r="J40" s="7">
+      <c r="J40" s="3">
         <v>0.8716326530612245</v>
       </c>
       <c r="K40" s="3">
@@ -3307,7 +3297,7 @@
         <v>120</v>
       </c>
       <c r="P40" s="3">
-        <f>ABS(D40-J40)</f>
+        <f t="shared" si="1"/>
         <v>4.4421768707483045E-2</v>
       </c>
     </row>
@@ -3339,7 +3329,7 @@
       <c r="I41" t="s">
         <v>208</v>
       </c>
-      <c r="J41" s="7">
+      <c r="J41" s="3">
         <v>0.87071428571428577</v>
       </c>
       <c r="K41" s="3">
@@ -3358,7 +3348,7 @@
         <v>106</v>
       </c>
       <c r="P41" s="3">
-        <f>ABS(D41-J41)</f>
+        <f t="shared" si="1"/>
         <v>3.5702947845804966E-2</v>
       </c>
     </row>
@@ -3390,7 +3380,7 @@
       <c r="I42" t="s">
         <v>144</v>
       </c>
-      <c r="J42" s="7">
+      <c r="J42" s="3">
         <v>0.86928571428571422</v>
       </c>
       <c r="K42" s="3">
@@ -3409,7 +3399,7 @@
         <v>29</v>
       </c>
       <c r="P42" s="3">
-        <f>ABS(D42-J42)</f>
+        <f t="shared" si="1"/>
         <v>4.7579365079365221E-2</v>
       </c>
     </row>
@@ -3441,7 +3431,7 @@
       <c r="I43" t="s">
         <v>77</v>
       </c>
-      <c r="J43" s="7">
+      <c r="J43" s="3">
         <v>0.86841836734693867</v>
       </c>
       <c r="K43" s="3">
@@ -3460,7 +3450,7 @@
         <v>29</v>
       </c>
       <c r="P43" s="3">
-        <f>ABS(D43-J43)</f>
+        <f t="shared" si="1"/>
         <v>3.9308390022675832E-2</v>
       </c>
     </row>
@@ -3492,7 +3482,7 @@
       <c r="I44" t="s">
         <v>175</v>
       </c>
-      <c r="J44" s="7">
+      <c r="J44" s="3">
         <v>0.86811224489795924</v>
       </c>
       <c r="K44" s="3">
@@ -3511,7 +3501,7 @@
         <v>106</v>
       </c>
       <c r="P44" s="3">
-        <f>ABS(D44-J44)</f>
+        <f t="shared" si="1"/>
         <v>3.8270975056689194E-2</v>
       </c>
     </row>
@@ -3543,7 +3533,7 @@
       <c r="I45" t="s">
         <v>72</v>
       </c>
-      <c r="J45" s="7">
+      <c r="J45" s="3">
         <v>0.86760204081632664</v>
       </c>
       <c r="K45" s="3">
@@ -3562,7 +3552,7 @@
         <v>106</v>
       </c>
       <c r="P45" s="3">
-        <f>ABS(D45-J45)</f>
+        <f t="shared" si="1"/>
         <v>4.155328798185931E-2</v>
       </c>
     </row>
@@ -3594,7 +3584,7 @@
       <c r="I46" t="s">
         <v>55</v>
       </c>
-      <c r="J46" s="7">
+      <c r="J46" s="3">
         <v>0.86760204081632641</v>
       </c>
       <c r="K46" s="3">
@@ -3613,7 +3603,7 @@
         <v>128</v>
       </c>
       <c r="P46" s="3">
-        <f>ABS(D46-J46)</f>
+        <f t="shared" si="1"/>
         <v>4.1014739229025099E-2</v>
       </c>
     </row>
@@ -3645,7 +3635,7 @@
       <c r="I47" t="s">
         <v>28</v>
       </c>
-      <c r="J47" s="7">
+      <c r="J47" s="3">
         <v>0.86673469387755109</v>
       </c>
       <c r="K47" s="3">
@@ -3664,7 +3654,7 @@
         <v>29</v>
       </c>
       <c r="P47" s="3">
-        <f>ABS(D47-J47)</f>
+        <f t="shared" si="1"/>
         <v>4.1060090702947805E-2</v>
       </c>
     </row>
@@ -3696,7 +3686,7 @@
       <c r="I48" t="s">
         <v>180</v>
       </c>
-      <c r="J48" s="7">
+      <c r="J48" s="3">
         <v>0.86147959183673473</v>
       </c>
       <c r="K48" s="3">
@@ -3715,7 +3705,7 @@
         <v>29</v>
       </c>
       <c r="P48" s="3">
-        <f>ABS(D48-J48)</f>
+        <f t="shared" si="1"/>
         <v>4.3412698412698236E-2</v>
       </c>
     </row>
@@ -3747,7 +3737,7 @@
       <c r="I49" t="s">
         <v>205</v>
       </c>
-      <c r="J49" s="7">
+      <c r="J49" s="3">
         <v>0.86142857142857154</v>
       </c>
       <c r="K49" s="3">
@@ -3766,7 +3756,7 @@
         <v>106</v>
       </c>
       <c r="P49" s="3">
-        <f>ABS(D49-J49)</f>
+        <f t="shared" si="1"/>
         <v>4.2568027210884263E-2</v>
       </c>
     </row>
@@ -3798,7 +3788,7 @@
       <c r="I50" t="s">
         <v>151</v>
       </c>
-      <c r="J50" s="7">
+      <c r="J50" s="3">
         <v>0.87316326530612265</v>
       </c>
       <c r="K50" s="3">
@@ -3817,7 +3807,7 @@
         <v>75</v>
       </c>
       <c r="P50" s="3">
-        <f>ABS(D50-J50)</f>
+        <f t="shared" si="1"/>
         <v>4.9376417233559899E-2</v>
       </c>
     </row>
@@ -3849,7 +3839,7 @@
       <c r="I51" t="s">
         <v>19</v>
       </c>
-      <c r="J51" s="7">
+      <c r="J51" s="3">
         <v>0.87265306122448971</v>
       </c>
       <c r="K51" s="3">
@@ -3868,7 +3858,7 @@
         <v>20</v>
       </c>
       <c r="P51" s="3">
-        <f>ABS(D51-J51)</f>
+        <f t="shared" si="1"/>
         <v>4.048185941043092E-2</v>
       </c>
     </row>
@@ -3900,7 +3890,7 @@
       <c r="I52" t="s">
         <v>196</v>
       </c>
-      <c r="J52" s="7">
+      <c r="J52" s="3">
         <v>0.87260204081632653</v>
       </c>
       <c r="K52" s="3">
@@ -3919,7 +3909,7 @@
         <v>44</v>
       </c>
       <c r="P52" s="3">
-        <f>ABS(D52-J52)</f>
+        <f t="shared" si="1"/>
         <v>4.9863945578231261E-2</v>
       </c>
     </row>
@@ -3951,7 +3941,7 @@
       <c r="I53" t="s">
         <v>53</v>
       </c>
-      <c r="J53" s="7">
+      <c r="J53" s="3">
         <v>0.87096938775510213</v>
       </c>
       <c r="K53" s="3">
@@ -3970,7 +3960,7 @@
         <v>44</v>
       </c>
       <c r="P53" s="3">
-        <f>ABS(D53-J53)</f>
+        <f t="shared" si="1"/>
         <v>3.5498866213151792E-2</v>
       </c>
     </row>
@@ -4002,7 +3992,7 @@
       <c r="I54" t="s">
         <v>185</v>
       </c>
-      <c r="J54" s="7">
+      <c r="J54" s="3">
         <v>0.87020408163265317</v>
       </c>
       <c r="K54" s="3">
@@ -4021,7 +4011,7 @@
         <v>44</v>
       </c>
       <c r="P54" s="3">
-        <f>ABS(D54-J54)</f>
+        <f t="shared" si="1"/>
         <v>3.5793650793650711E-2</v>
       </c>
     </row>
@@ -4053,7 +4043,7 @@
       <c r="I55" t="s">
         <v>74</v>
       </c>
-      <c r="J55" s="7">
+      <c r="J55" s="3">
         <v>0.86948979591836728</v>
       </c>
       <c r="K55" s="3">
@@ -4072,7 +4062,7 @@
         <v>75</v>
       </c>
       <c r="P55" s="3">
-        <f>ABS(D55-J55)</f>
+        <f t="shared" si="1"/>
         <v>3.8270975056689527E-2</v>
       </c>
     </row>
@@ -4104,7 +4094,7 @@
       <c r="I56" t="s">
         <v>183</v>
       </c>
-      <c r="J56" s="7">
+      <c r="J56" s="3">
         <v>0.8682653061224489</v>
       </c>
       <c r="K56" s="3">
@@ -4123,7 +4113,7 @@
         <v>75</v>
       </c>
       <c r="P56" s="3">
-        <f>ABS(D56-J56)</f>
+        <f t="shared" si="1"/>
         <v>3.7069160997732498E-2</v>
       </c>
     </row>
@@ -4155,7 +4145,7 @@
       <c r="I57" t="s">
         <v>62</v>
       </c>
-      <c r="J57" s="7">
+      <c r="J57" s="3">
         <v>0.86816326530612242</v>
       </c>
       <c r="K57" s="3">
@@ -4174,7 +4164,7 @@
         <v>63</v>
       </c>
       <c r="P57" s="3">
-        <f>ABS(D57-J57)</f>
+        <f t="shared" si="1"/>
         <v>4.090136054421778E-2</v>
       </c>
     </row>
@@ -4206,7 +4196,7 @@
       <c r="I58" t="s">
         <v>146</v>
       </c>
-      <c r="J58" s="7">
+      <c r="J58" s="3">
         <v>0.86795918367346936</v>
       </c>
       <c r="K58" s="3">
@@ -4225,7 +4215,7 @@
         <v>75</v>
       </c>
       <c r="P58" s="3">
-        <f>ABS(D58-J58)</f>
+        <f t="shared" si="1"/>
         <v>3.9863945578231252E-2</v>
       </c>
     </row>
@@ -4257,7 +4247,7 @@
       <c r="I59" t="s">
         <v>146</v>
       </c>
-      <c r="J59" s="7">
+      <c r="J59" s="3">
         <v>0.86765306122448971</v>
       </c>
       <c r="K59" s="3">
@@ -4276,7 +4266,7 @@
         <v>44</v>
       </c>
       <c r="P59" s="3">
-        <f>ABS(D59-J59)</f>
+        <f t="shared" si="1"/>
         <v>4.1281179138322077E-2</v>
       </c>
     </row>
@@ -4308,7 +4298,7 @@
       <c r="I60" t="s">
         <v>77</v>
       </c>
-      <c r="J60" s="7">
+      <c r="J60" s="3">
         <v>0.86673469387755098</v>
       </c>
       <c r="K60" s="3">
@@ -4327,7 +4317,7 @@
         <v>44</v>
       </c>
       <c r="P60" s="3">
-        <f>ABS(D60-J60)</f>
+        <f t="shared" si="1"/>
         <v>4.0260770975056648E-2</v>
       </c>
     </row>
@@ -4378,7 +4368,7 @@
         <v>44</v>
       </c>
       <c r="P61" s="3">
-        <f>ABS(D61-J61)</f>
+        <f t="shared" si="1"/>
         <v>5.0345804988662146E-2</v>
       </c>
     </row>
@@ -4429,7 +4419,7 @@
         <v>17</v>
       </c>
       <c r="P62" s="3">
-        <f>ABS(D62-J62)</f>
+        <f t="shared" si="1"/>
         <v>5.1802721088435422E-2</v>
       </c>
     </row>
@@ -4461,7 +4451,7 @@
       <c r="I63" t="s">
         <v>141</v>
       </c>
-      <c r="J63" s="7">
+      <c r="J63" s="3">
         <v>0.86658163265306121</v>
       </c>
       <c r="K63" s="3">
@@ -4480,7 +4470,7 @@
         <v>75</v>
       </c>
       <c r="P63" s="3">
-        <f>ABS(D63-J63)</f>
+        <f t="shared" si="1"/>
         <v>3.635487528344683E-2</v>
       </c>
     </row>
@@ -4512,7 +4502,7 @@
       <c r="I64" t="s">
         <v>77</v>
       </c>
-      <c r="J64" s="7">
+      <c r="J64" s="3">
         <v>0.86617346938775497</v>
       </c>
       <c r="K64" s="3">
@@ -4531,7 +4521,7 @@
         <v>23</v>
       </c>
       <c r="P64" s="3">
-        <f>ABS(D64-J64)</f>
+        <f t="shared" si="1"/>
         <v>4.0935374149659975E-2</v>
       </c>
     </row>
@@ -4563,7 +4553,7 @@
       <c r="I65" t="s">
         <v>72</v>
       </c>
-      <c r="J65" s="7">
+      <c r="J65" s="3">
         <v>0.86561224489795929</v>
       </c>
       <c r="K65" s="3">
@@ -4582,7 +4572,7 @@
         <v>75</v>
       </c>
       <c r="P65" s="3">
-        <f>ABS(D65-J65)</f>
+        <f t="shared" si="1"/>
         <v>3.9761904761904665E-2</v>
       </c>
     </row>
@@ -4614,7 +4604,7 @@
       <c r="I66" t="s">
         <v>46</v>
       </c>
-      <c r="J66" s="7">
+      <c r="J66" s="3">
         <v>0.86525510204081635</v>
       </c>
       <c r="K66" s="3">
@@ -4633,7 +4623,7 @@
         <v>44</v>
       </c>
       <c r="P66" s="3">
-        <f>ABS(D66-J66)</f>
+        <f t="shared" ref="P66:P101" si="2">ABS(D66-J66)</f>
         <v>4.1802721088435413E-2</v>
       </c>
     </row>
@@ -4665,7 +4655,7 @@
       <c r="I67" t="s">
         <v>22</v>
       </c>
-      <c r="J67" s="7">
+      <c r="J67" s="3">
         <v>0.86489795918367351</v>
       </c>
       <c r="K67" s="3">
@@ -4684,7 +4674,7 @@
         <v>23</v>
       </c>
       <c r="P67" s="3">
-        <f>ABS(D67-J67)</f>
+        <f t="shared" si="2"/>
         <v>4.1927437641723353E-2</v>
       </c>
     </row>
@@ -4716,7 +4706,7 @@
       <c r="I68" t="s">
         <v>168</v>
       </c>
-      <c r="J68" s="7">
+      <c r="J68" s="3">
         <v>0.86484693877551044</v>
       </c>
       <c r="K68" s="3">
@@ -4735,7 +4725,7 @@
         <v>75</v>
       </c>
       <c r="P68" s="3">
-        <f>ABS(D68-J68)</f>
+        <f t="shared" si="2"/>
         <v>3.9019274376416835E-2</v>
       </c>
     </row>
@@ -4767,7 +4757,7 @@
       <c r="I69" t="s">
         <v>125</v>
       </c>
-      <c r="J69" s="7">
+      <c r="J69" s="3">
         <v>0.86352040816326536</v>
       </c>
       <c r="K69" s="3">
@@ -4786,7 +4776,7 @@
         <v>126</v>
       </c>
       <c r="P69" s="3">
-        <f>ABS(D69-J69)</f>
+        <f t="shared" si="2"/>
         <v>3.8769841269841288E-2</v>
       </c>
     </row>
@@ -4818,7 +4808,7 @@
       <c r="I70" t="s">
         <v>43</v>
       </c>
-      <c r="J70" s="7">
+      <c r="J70" s="3">
         <v>0.86311224489795924</v>
       </c>
       <c r="K70" s="3">
@@ -4837,7 +4827,7 @@
         <v>44</v>
       </c>
       <c r="P70" s="3">
-        <f>ABS(D70-J70)</f>
+        <f t="shared" si="2"/>
         <v>3.5844671201814005E-2</v>
       </c>
     </row>
@@ -4869,7 +4859,7 @@
       <c r="I71" t="s">
         <v>79</v>
       </c>
-      <c r="J71" s="7">
+      <c r="J71" s="3">
         <v>0.86244897959183675</v>
       </c>
       <c r="K71" s="3">
@@ -4888,7 +4878,7 @@
         <v>23</v>
       </c>
       <c r="P71" s="3">
-        <f>ABS(D71-J71)</f>
+        <f t="shared" si="2"/>
         <v>3.9858276643990886E-2</v>
       </c>
     </row>
@@ -4920,7 +4910,7 @@
       <c r="I72" t="s">
         <v>125</v>
       </c>
-      <c r="J72" s="7">
+      <c r="J72" s="3">
         <v>0.86229591836734687</v>
       </c>
       <c r="K72" s="3">
@@ -4939,7 +4929,7 @@
         <v>75</v>
       </c>
       <c r="P72" s="3">
-        <f>ABS(D72-J72)</f>
+        <f t="shared" si="2"/>
         <v>3.9058956916099841E-2</v>
       </c>
     </row>
@@ -4971,7 +4961,7 @@
       <c r="I73" t="s">
         <v>194</v>
       </c>
-      <c r="J73" s="7">
+      <c r="J73" s="3">
         <v>0.86188775510204074</v>
       </c>
       <c r="K73" s="3">
@@ -4990,7 +4980,7 @@
         <v>75</v>
       </c>
       <c r="P73" s="3">
-        <f>ABS(D73-J73)</f>
+        <f t="shared" si="2"/>
         <v>3.9467120181406079E-2</v>
       </c>
     </row>
@@ -5022,7 +5012,7 @@
       <c r="I74" t="s">
         <v>190</v>
       </c>
-      <c r="J74" s="7">
+      <c r="J74" s="3">
         <v>0.87096938775510202</v>
       </c>
       <c r="K74" s="3">
@@ -5041,7 +5031,7 @@
         <v>70</v>
       </c>
       <c r="P74" s="3">
-        <f>ABS(D74-J74)</f>
+        <f t="shared" si="2"/>
         <v>3.2891156462584892E-2</v>
       </c>
     </row>
@@ -5073,7 +5063,7 @@
       <c r="I75" t="s">
         <v>110</v>
       </c>
-      <c r="J75" s="7">
+      <c r="J75" s="3">
         <v>0.87025510204081635</v>
       </c>
       <c r="K75" s="3">
@@ -5092,7 +5082,7 @@
         <v>111</v>
       </c>
       <c r="P75" s="3">
-        <f>ABS(D75-J75)</f>
+        <f t="shared" si="2"/>
         <v>4.2845804988662195E-2</v>
       </c>
     </row>
@@ -5124,7 +5114,7 @@
       <c r="I76" t="s">
         <v>34</v>
       </c>
-      <c r="J76" s="7">
+      <c r="J76" s="3">
         <v>0.87</v>
       </c>
       <c r="K76" s="3">
@@ -5143,7 +5133,7 @@
         <v>35</v>
       </c>
       <c r="P76" s="3">
-        <f>ABS(D76-J76)</f>
+        <f t="shared" si="2"/>
         <v>3.4795918367346967E-2</v>
       </c>
     </row>
@@ -5175,7 +5165,7 @@
       <c r="I77" t="s">
         <v>130</v>
       </c>
-      <c r="J77" s="7">
+      <c r="J77" s="3">
         <v>0.86979591836734693</v>
       </c>
       <c r="K77" s="3">
@@ -5194,7 +5184,7 @@
         <v>17</v>
       </c>
       <c r="P77" s="3">
-        <f>ABS(D77-J77)</f>
+        <f t="shared" si="2"/>
         <v>3.9382086167800479E-2</v>
       </c>
     </row>
@@ -5226,7 +5216,7 @@
       <c r="I78" t="s">
         <v>90</v>
       </c>
-      <c r="J78" s="7">
+      <c r="J78" s="3">
         <v>0.86923469387755103</v>
       </c>
       <c r="K78" s="3">
@@ -5245,7 +5235,7 @@
         <v>35</v>
       </c>
       <c r="P78" s="3">
-        <f>ABS(D78-J78)</f>
+        <f t="shared" si="2"/>
         <v>3.6201814058956949E-2</v>
       </c>
     </row>
@@ -5277,7 +5267,7 @@
       <c r="I79" t="s">
         <v>34</v>
       </c>
-      <c r="J79" s="7">
+      <c r="J79" s="3">
         <v>0.86857142857142855</v>
       </c>
       <c r="K79" s="3">
@@ -5296,7 +5286,7 @@
         <v>70</v>
       </c>
       <c r="P79" s="3">
-        <f>ABS(D79-J79)</f>
+        <f t="shared" si="2"/>
         <v>3.836167800453516E-2</v>
       </c>
     </row>
@@ -5328,7 +5318,7 @@
       <c r="I80" t="s">
         <v>156</v>
       </c>
-      <c r="J80" s="7">
+      <c r="J80" s="3">
         <v>0.86852040816326537</v>
       </c>
       <c r="K80" s="3">
@@ -5347,7 +5337,7 @@
         <v>157</v>
       </c>
       <c r="P80" s="3">
-        <f>ABS(D80-J80)</f>
+        <f t="shared" si="2"/>
         <v>4.2517006802720969E-2</v>
       </c>
     </row>
@@ -5379,7 +5369,7 @@
       <c r="I81" t="s">
         <v>159</v>
       </c>
-      <c r="J81" s="7">
+      <c r="J81" s="3">
         <v>0.86841836734693889</v>
       </c>
       <c r="K81" s="3">
@@ -5398,7 +5388,7 @@
         <v>35</v>
       </c>
       <c r="P81" s="3">
-        <f>ABS(D81-J81)</f>
+        <f t="shared" si="2"/>
         <v>4.7477324263038412E-2</v>
       </c>
     </row>
@@ -5430,7 +5420,7 @@
       <c r="I82" t="s">
         <v>221</v>
       </c>
-      <c r="J82" s="7">
+      <c r="J82" s="3">
         <v>0.86816326530612231</v>
       </c>
       <c r="K82" s="3">
@@ -5449,7 +5439,7 @@
         <v>157</v>
       </c>
       <c r="P82" s="3">
-        <f>ABS(D82-J82)</f>
+        <f t="shared" si="2"/>
         <v>4.6666666666666856E-2</v>
       </c>
     </row>
@@ -5481,7 +5471,7 @@
       <c r="I83" t="s">
         <v>149</v>
       </c>
-      <c r="J83" s="7">
+      <c r="J83" s="3">
         <v>0.86673469387755109</v>
       </c>
       <c r="K83" s="3">
@@ -5500,7 +5490,7 @@
         <v>111</v>
       </c>
       <c r="P83" s="3">
-        <f>ABS(D83-J83)</f>
+        <f t="shared" si="2"/>
         <v>4.1717687074829701E-2</v>
       </c>
     </row>
@@ -5532,7 +5522,7 @@
       <c r="I84" t="s">
         <v>55</v>
       </c>
-      <c r="J84" s="7">
+      <c r="J84" s="3">
         <v>0.86632653061224496</v>
       </c>
       <c r="K84" s="3">
@@ -5551,7 +5541,7 @@
         <v>111</v>
       </c>
       <c r="P84" s="3">
-        <f>ABS(D84-J84)</f>
+        <f t="shared" si="2"/>
         <v>3.7976190476190386E-2</v>
       </c>
     </row>
@@ -5583,7 +5573,7 @@
       <c r="I85" t="s">
         <v>192</v>
       </c>
-      <c r="J85" s="7">
+      <c r="J85" s="3">
         <v>0.86632653061224485</v>
       </c>
       <c r="K85" s="3">
@@ -5602,7 +5592,7 @@
         <v>198</v>
       </c>
       <c r="P85" s="3">
-        <f>ABS(D85-J85)</f>
+        <f t="shared" si="2"/>
         <v>4.2709750566893412E-2</v>
       </c>
     </row>
@@ -5634,7 +5624,7 @@
       <c r="I86" t="s">
         <v>72</v>
       </c>
-      <c r="J86" s="7">
+      <c r="J86" s="3">
         <v>0.86561224489795918</v>
       </c>
       <c r="K86" s="3">
@@ -5653,7 +5643,7 @@
         <v>35</v>
       </c>
       <c r="P86" s="3">
-        <f>ABS(D86-J86)</f>
+        <f t="shared" si="2"/>
         <v>4.4574829931972815E-2</v>
       </c>
     </row>
@@ -5685,7 +5675,7 @@
       <c r="I87" t="s">
         <v>90</v>
       </c>
-      <c r="J87" s="7">
+      <c r="J87" s="3">
         <v>0.86530612244897953</v>
       </c>
       <c r="K87" s="3">
@@ -5704,7 +5694,7 @@
         <v>70</v>
       </c>
       <c r="P87" s="3">
-        <f>ABS(D87-J87)</f>
+        <f t="shared" si="2"/>
         <v>3.9739229024943312E-2</v>
       </c>
     </row>
@@ -5736,7 +5726,7 @@
       <c r="I88" t="s">
         <v>69</v>
       </c>
-      <c r="J88" s="7">
+      <c r="J88" s="3">
         <v>0.8649489795918367</v>
       </c>
       <c r="K88" s="3">
@@ -5755,7 +5745,7 @@
         <v>70</v>
       </c>
       <c r="P88" s="3">
-        <f>ABS(D88-J88)</f>
+        <f t="shared" si="2"/>
         <v>3.9648526077097457E-2</v>
       </c>
     </row>
@@ -5787,7 +5777,7 @@
       <c r="I89" t="s">
         <v>144</v>
       </c>
-      <c r="J89" s="7">
+      <c r="J89" s="3">
         <v>0.86418367346938785</v>
       </c>
       <c r="K89" s="3">
@@ -5806,7 +5796,7 @@
         <v>35</v>
       </c>
       <c r="P89" s="3">
-        <f>ABS(D89-J89)</f>
+        <f t="shared" si="2"/>
         <v>4.7715419501133782E-2</v>
       </c>
     </row>
@@ -5838,7 +5828,7 @@
       <c r="I90" t="s">
         <v>202</v>
       </c>
-      <c r="J90" s="7">
+      <c r="J90" s="3">
         <v>0.86418367346938774</v>
       </c>
       <c r="K90" s="3">
@@ -5857,7 +5847,7 @@
         <v>70</v>
       </c>
       <c r="P90" s="3">
-        <f>ABS(D90-J90)</f>
+        <f t="shared" si="2"/>
         <v>3.8129251700680378E-2</v>
       </c>
     </row>
@@ -5889,7 +5879,7 @@
       <c r="I91" t="s">
         <v>95</v>
       </c>
-      <c r="J91" s="7">
+      <c r="J91" s="3">
         <v>0.86295918367346947</v>
       </c>
       <c r="K91" s="3">
@@ -5908,7 +5898,7 @@
         <v>35</v>
       </c>
       <c r="P91" s="3">
-        <f>ABS(D91-J91)</f>
+        <f t="shared" si="2"/>
         <v>3.5963718820861579E-2</v>
       </c>
     </row>
@@ -5940,7 +5930,7 @@
       <c r="I92" t="s">
         <v>210</v>
       </c>
-      <c r="J92" s="7">
+      <c r="J92" s="3">
         <v>0.86795918367346947</v>
       </c>
       <c r="K92" s="3">
@@ -5959,7 +5949,7 @@
         <v>211</v>
       </c>
       <c r="P92" s="3">
-        <f>ABS(D92-J92)</f>
+        <f t="shared" si="2"/>
         <v>3.6485260770975025E-2</v>
       </c>
     </row>
@@ -5991,7 +5981,7 @@
       <c r="I93" t="s">
         <v>218</v>
       </c>
-      <c r="J93" s="7">
+      <c r="J93" s="3">
         <v>0.86433673469387762</v>
       </c>
       <c r="K93" s="3">
@@ -6010,7 +6000,7 @@
         <v>219</v>
       </c>
       <c r="P93" s="3">
-        <f>ABS(D93-J93)</f>
+        <f t="shared" si="2"/>
         <v>3.5924036281179017E-2</v>
       </c>
     </row>
@@ -6042,7 +6032,7 @@
       <c r="I94" t="s">
         <v>163</v>
       </c>
-      <c r="J94" s="7">
+      <c r="J94" s="3">
         <v>0.87020408163265306</v>
       </c>
       <c r="K94" s="3">
@@ -6061,7 +6051,7 @@
         <v>104</v>
       </c>
       <c r="P94" s="3">
-        <f>ABS(D94-J94)</f>
+        <f t="shared" si="2"/>
         <v>3.702380952380957E-2</v>
       </c>
     </row>
@@ -6093,7 +6083,7 @@
       <c r="I95" t="s">
         <v>87</v>
       </c>
-      <c r="J95" s="7">
+      <c r="J95" s="3">
         <v>0.86913265306122456</v>
       </c>
       <c r="K95" s="3">
@@ -6112,7 +6102,7 @@
         <v>104</v>
       </c>
       <c r="P95" s="3">
-        <f>ABS(D95-J95)</f>
+        <f t="shared" si="2"/>
         <v>3.499999999999992E-2</v>
       </c>
     </row>
@@ -6144,7 +6134,7 @@
       <c r="I96" t="s">
         <v>40</v>
       </c>
-      <c r="J96" s="7">
+      <c r="J96" s="3">
         <v>0.8671938775510204</v>
       </c>
       <c r="K96" s="3">
@@ -6163,7 +6153,7 @@
         <v>41</v>
       </c>
       <c r="P96" s="3">
-        <f>ABS(D96-J96)</f>
+        <f t="shared" si="2"/>
         <v>4.6802721088435306E-2</v>
       </c>
     </row>
@@ -6195,7 +6185,7 @@
       <c r="I97" t="s">
         <v>103</v>
       </c>
-      <c r="J97" s="7">
+      <c r="J97" s="3">
         <v>0.8666326530612245</v>
       </c>
       <c r="K97" s="3">
@@ -6214,7 +6204,7 @@
         <v>104</v>
       </c>
       <c r="P97" s="3">
-        <f>ABS(D97-J97)</f>
+        <f t="shared" si="2"/>
         <v>4.5413832199546533E-2</v>
       </c>
     </row>
@@ -6246,7 +6236,7 @@
       <c r="I98" t="s">
         <v>37</v>
       </c>
-      <c r="J98" s="7">
+      <c r="J98" s="3">
         <v>0.86331632653061219</v>
       </c>
       <c r="K98" s="3">
@@ -6265,7 +6255,7 @@
         <v>38</v>
       </c>
       <c r="P98" s="3">
-        <f>ABS(D98-J98)</f>
+        <f t="shared" si="2"/>
         <v>3.4988662131519299E-2</v>
       </c>
     </row>
@@ -6297,7 +6287,7 @@
       <c r="I99" t="s">
         <v>141</v>
       </c>
-      <c r="J99" s="7">
+      <c r="J99" s="3">
         <v>0.86448979591836739</v>
       </c>
       <c r="K99" s="3">
@@ -6316,7 +6306,7 @@
         <v>142</v>
       </c>
       <c r="P99" s="3">
-        <f>ABS(D99-J99)</f>
+        <f t="shared" si="2"/>
         <v>4.0022675736961388E-2</v>
       </c>
     </row>
@@ -6348,7 +6338,7 @@
       <c r="I100" t="s">
         <v>116</v>
       </c>
-      <c r="J100" s="7">
+      <c r="J100" s="3">
         <v>0.86255102040816323</v>
       </c>
       <c r="K100" s="3">
@@ -6367,7 +6357,7 @@
         <v>117</v>
       </c>
       <c r="P100" s="3">
-        <f>ABS(D100-J100)</f>
+        <f t="shared" si="2"/>
         <v>3.5856009070294848E-2</v>
       </c>
     </row>
@@ -6399,7 +6389,7 @@
       <c r="I101" t="s">
         <v>170</v>
       </c>
-      <c r="J101" s="7">
+      <c r="J101" s="3">
         <v>0.86168367346938779</v>
       </c>
       <c r="K101" s="3">
@@ -6418,9 +6408,12 @@
         <v>142</v>
       </c>
       <c r="P101" s="3">
-        <f>ABS(D101-J101)</f>
+        <f t="shared" si="2"/>
         <v>3.7465986394557782E-2</v>
       </c>
+    </row>
+    <row r="1048571" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J1048571" s="2"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:P101" xr:uid="{00000000-0001-0000-0000-000000000000}">
